--- a/02_設計/00_サンプル/画面レイアウト.xlsx
+++ b/02_設計/00_サンプル/画面レイアウト.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7AD7316-9B0F-4ADA-B093-D4B2DBF029E2}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D50D9E5-70B8-4E43-AE1D-A022E0E29583}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="画面レイアウト" sheetId="4" r:id="rId3"/>
-    <sheet name="画面レイアウト (サンプル)" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="画面レイアウト." sheetId="8" r:id="rId3"/>
+    <sheet name="画面レイアウト_old" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="画面レイアウト (サンプル)" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$M$24</definedName>
@@ -41,6 +42,107 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>中村綜馬</author>
+  </authors>
+  <commentList>
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{FAFD0EBF-427E-4D1E-AE41-0EC655C4F8BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>HTMLで識別するため、画面部品ごとにIDを振る。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{6A8D8D00-45C4-481F-88FF-02A2EF28D4A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>画面に表示される時の名称。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M47" authorId="0" shapeId="0" xr:uid="{B8C20DD5-EEC0-480C-B99B-AE298A0A6D9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>どのような画面部品を用いるのかの画面部品名。他にボタンなどがある。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U47" authorId="0" shapeId="0" xr:uid="{50B38641-1076-456A-9258-C255C88F9B9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>表示する桁数や、テーブルのカラムの幅などを提示。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z47" authorId="0" shapeId="0" xr:uid="{A672A476-6C1C-4F90-9351-B7DB699CFE76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>その画面部品がどのような役割を果たすのか、の意味や説明を記述する。入出力が絡む場合はこ
+ちらに説明をつける。項目の細かい定義や処理内容は別扱い。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{915AE8DC-DCDF-4164-AE83-5E3D37C6C2CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>入力してボタンを押すなど、操作のイメージが掴めるような操作手順を記述する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>中村綜馬</author>
@@ -140,13 +242,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>中村綜馬</author>
   </authors>
   <commentList>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{0DCC772D-3206-4B9D-B66F-3321C76D546E}">
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{0DCC772D-3206-4B9D-B66F-3321C76D546E}">
       <text>
         <r>
           <rPr>
@@ -157,11 +259,11 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>図表内で識別するため、画面部品ごとにIDを振る。画面遷移や画面入出力項目一覧、画面アク ション明細などと連携して用いる。</t>
+          <t>HTMLで識別するため、画面部品ごとにIDを振る。</t>
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{E166A348-1A99-45E3-AA9E-7A747C69E2B1}">
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{E166A348-1A99-45E3-AA9E-7A747C69E2B1}">
       <text>
         <r>
           <rPr>
@@ -176,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{6A91F073-3DBF-4A76-8C98-E06EF1D9D6CB}">
+    <comment ref="M47" authorId="0" shapeId="0" xr:uid="{6A91F073-3DBF-4A76-8C98-E06EF1D9D6CB}">
       <text>
         <r>
           <rPr>
@@ -191,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S47" authorId="0" shapeId="0" xr:uid="{1131A56F-238E-43FE-AA63-CA900CE15CF9}">
+    <comment ref="U47" authorId="0" shapeId="0" xr:uid="{1131A56F-238E-43FE-AA63-CA900CE15CF9}">
       <text>
         <r>
           <rPr>
@@ -206,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X47" authorId="0" shapeId="0" xr:uid="{1A6D6F4C-68DF-4724-A38A-F7B02FEB0708}">
+    <comment ref="Z47" authorId="0" shapeId="0" xr:uid="{1A6D6F4C-68DF-4724-A38A-F7B02FEB0708}">
       <text>
         <r>
           <rPr>
@@ -242,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -392,13 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>罫線</t>
-    <rPh sb="0" eb="2">
-      <t>ケイセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表</t>
     <rPh sb="0" eb="1">
       <t>ヒョウ</t>
@@ -444,14 +539,6 @@
   </si>
   <si>
     <t>ロゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -525,12 +612,54 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社のロゴ</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDE001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDE002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDE003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDE004</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +724,21 @@
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -900,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -925,10 +1069,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -939,6 +1101,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -962,14 +1127,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1007,14 +1172,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1095,7 +1255,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>①</a:t>
+            <a:t>②</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1163,7 +1323,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>②</a:t>
+            <a:t>③</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1231,7 +1391,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>③</a:t>
+            <a:t>④</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1610,6 +1770,195 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEC8871-C1E0-42CC-A906-E76A0C9A4F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5203371" y="2775856"/>
+          <a:ext cx="3287486" cy="1861457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88994B94-F6A1-43AC-B3F3-5BBA6B90431E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3831772" y="3701143"/>
+          <a:ext cx="1404256" cy="27214"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9925C742-4E3D-4A63-9706-34C6FECDC89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3472544" y="3461660"/>
+          <a:ext cx="446314" cy="391886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1911,657 +2260,657 @@
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="23"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -2681,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35813DF8-F119-4842-950B-7ED0ADF5C4C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0673BB-8731-4AF9-968B-CAED3331CF0E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2694,203 +3043,203 @@
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="27" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="28"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="29" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="30"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="41"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="38"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
     </row>
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="26"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="2"/>
@@ -3076,6 +3425,2697 @@
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="7"/>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="7"/>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="7"/>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="7"/>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="7"/>
+    </row>
+    <row r="15" spans="1:43" ht="18" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="7"/>
+    </row>
+    <row r="16" spans="1:43" ht="18" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="7"/>
+    </row>
+    <row r="17" spans="1:43" ht="18" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="7"/>
+    </row>
+    <row r="18" spans="1:43" ht="18" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="7"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="7"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="7"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="7"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="7"/>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="7"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="7"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="7"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="7"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="7"/>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="7"/>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="7"/>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="7"/>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="7"/>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="7"/>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="7"/>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="7"/>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="7"/>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="7"/>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="7"/>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="7"/>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="7"/>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="7"/>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="7"/>
+    </row>
+    <row r="42" spans="1:43">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="7"/>
+    </row>
+    <row r="43" spans="1:43">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="7"/>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="6"/>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="7"/>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="9"/>
+      <c r="AQ45" s="10"/>
+    </row>
+    <row r="46" spans="1:43">
+      <c r="A46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="36"/>
+    </row>
+    <row r="47" spans="1:43">
+      <c r="A47" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="33"/>
+    </row>
+    <row r="48" spans="1:43">
+      <c r="A48" s="49"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="51"/>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" s="49"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="51"/>
+    </row>
+    <row r="50" spans="1:43">
+      <c r="A50" s="49"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="51"/>
+    </row>
+    <row r="51" spans="1:43">
+      <c r="A51" s="49"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="51"/>
+    </row>
+    <row r="52" spans="1:43">
+      <c r="A52" s="49"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="50"/>
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="50"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="51"/>
+    </row>
+    <row r="53" spans="1:43">
+      <c r="A53" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="36"/>
+    </row>
+    <row r="54" spans="1:43">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="4"/>
+    </row>
+    <row r="55" spans="1:43">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="7"/>
+    </row>
+    <row r="56" spans="1:43">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6"/>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="7"/>
+    </row>
+    <row r="57" spans="1:43">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="6"/>
+      <c r="AQ57" s="7"/>
+    </row>
+    <row r="58" spans="1:43">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="9"/>
+      <c r="AQ58" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A53:AQ53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AQ52"/>
+    <mergeCell ref="Z51:AQ51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AQ50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="Z49:AQ49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AQ48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
+    <mergeCell ref="Z47:AQ47"/>
+    <mergeCell ref="A5:AQ5"/>
+    <mergeCell ref="A46:AQ46"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6699ECC2-822D-487A-AF58-237381A6C7B1}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$2:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>M48:T52</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35813DF8-F119-4842-950B-7ED0ADF5C4C6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AQ58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A27" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="41"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="52"/>
+    </row>
+    <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
+    <row r="5" spans="1:43">
+      <c r="A5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="4"/>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="7"/>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="7"/>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="7"/>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4693,378 +7733,378 @@
       <c r="AQ45" s="10"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25"/>
-      <c r="AQ46" s="26"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="36"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="24" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="24" t="s">
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="24" t="s">
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="25" t="s">
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="26"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35"/>
+      <c r="AQ47" s="36"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AQ48" s="22"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="26"/>
+      <c r="AN48" s="26"/>
+      <c r="AO48" s="26"/>
+      <c r="AP48" s="26"/>
+      <c r="AQ48" s="26"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
-      <c r="AQ49" s="22"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="26"/>
+      <c r="AN49" s="26"/>
+      <c r="AO49" s="26"/>
+      <c r="AP49" s="26"/>
+      <c r="AQ49" s="26"/>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="22"/>
-      <c r="AQ50" s="22"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="26"/>
+      <c r="AN50" s="26"/>
+      <c r="AO50" s="26"/>
+      <c r="AP50" s="26"/>
+      <c r="AQ50" s="26"/>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26"/>
+      <c r="AQ51" s="26"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
-      <c r="AM52" s="22"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
-      <c r="AQ52" s="22"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="26"/>
+      <c r="AE52" s="26"/>
+      <c r="AF52" s="26"/>
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="26"/>
+      <c r="AK52" s="26"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="26"/>
+      <c r="AN52" s="26"/>
+      <c r="AO52" s="26"/>
+      <c r="AP52" s="26"/>
+      <c r="AQ52" s="26"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="25"/>
-      <c r="AG53" s="25"/>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AK53" s="25"/>
-      <c r="AL53" s="25"/>
-      <c r="AM53" s="25"/>
-      <c r="AN53" s="25"/>
-      <c r="AO53" s="25"/>
-      <c r="AP53" s="25"/>
-      <c r="AQ53" s="26"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="36"/>
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2"/>
@@ -5351,7 +8391,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2183DFE1-D0C1-4CB0-843F-12D059A2474E}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$11</xm:f>
+            <xm:f>Sheet2!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>K48:R52</xm:sqref>
         </x14:dataValidation>
@@ -5361,7 +8401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDAB7CE-BDCD-469D-9662-7DAB2577C1BE}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -5376,217 +8416,217 @@
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="27" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
-        <v>30</v>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37" t="s">
+        <v>29</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="53">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="48">
         <v>44365</v>
       </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27" t="s">
-        <v>29</v>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37" t="s">
+        <v>28</v>
       </c>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="28"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="29" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40">
+        <v>44365</v>
+      </c>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="52">
-        <v>44365</v>
-      </c>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="30"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="41"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="54" t="s">
-        <v>45</v>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29" t="s">
+        <v>42</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="55"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
     </row>
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="26"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="2"/>
@@ -6007,14 +9047,14 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="39" t="s">
-        <v>34</v>
+      <c r="S15" s="65" t="s">
+        <v>33</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="17"/>
@@ -6053,12 +9093,12 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="17"/>
@@ -6097,12 +9137,12 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="17"/>
@@ -6141,12 +9181,12 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="17"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="17"/>
@@ -6315,18 +9355,18 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="40" t="s">
-        <v>31</v>
+      <c r="Q22" s="53" t="s">
+        <v>30</v>
       </c>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="42"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
@@ -6361,16 +9401,16 @@
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="45"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="58"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
@@ -6405,18 +9445,18 @@
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="40" t="s">
-        <v>32</v>
+      <c r="Q24" s="53" t="s">
+        <v>31</v>
       </c>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="42"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
@@ -6451,16 +9491,16 @@
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="45"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="58"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
@@ -6539,18 +9579,18 @@
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="46" t="s">
-        <v>33</v>
+      <c r="Q27" s="59" t="s">
+        <v>32</v>
       </c>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="48"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="61"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
@@ -6585,16 +9625,16 @@
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="51"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="64"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
@@ -7371,410 +10411,428 @@
       <c r="AQ45" s="10"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25"/>
-      <c r="AQ46" s="26"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="36"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="24" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="24" t="s">
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="25" t="s">
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="26"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="33"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="51"/>
+      <c r="C48" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="51"/>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26">
+        <v>10</v>
+      </c>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="51"/>
+    </row>
+    <row r="50" spans="1:43">
+      <c r="A50" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26">
+        <v>20</v>
+      </c>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="51"/>
+    </row>
+    <row r="51" spans="1:43">
+      <c r="A51" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22" t="s">
-        <v>31</v>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="49" t="s">
+        <v>39</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22">
-        <v>10</v>
-      </c>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AQ48" s="22"/>
-    </row>
-    <row r="49" spans="1:43">
-      <c r="A49" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22">
-        <v>20</v>
-      </c>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
-      <c r="AQ49" s="22"/>
-    </row>
-    <row r="50" spans="1:43">
-      <c r="A50" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="22"/>
-      <c r="AQ50" s="22"/>
-    </row>
-    <row r="51" spans="1:43">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="51"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
-      <c r="AM52" s="22"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
-      <c r="AQ52" s="22"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="50"/>
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="50"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="51"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="25"/>
-      <c r="AG53" s="25"/>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AK53" s="25"/>
-      <c r="AL53" s="25"/>
-      <c r="AM53" s="25"/>
-      <c r="AN53" s="25"/>
-      <c r="AO53" s="25"/>
-      <c r="AP53" s="25"/>
-      <c r="AQ53" s="26"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="36"/>
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7821,7 +10879,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -7868,7 +10926,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -8004,7 +11062,7 @@
       <c r="AQ58" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="58">
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Z1"/>
@@ -8022,41 +11080,47 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="A5:AQ5"/>
     <mergeCell ref="A46:AQ46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="X47:AQ47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:Y47"/>
     <mergeCell ref="Q22:Z23"/>
     <mergeCell ref="Q24:Z25"/>
     <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="S15:X18"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="Z47:AQ47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:Y49"/>
     <mergeCell ref="A53:AQ53"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="S50:W50"/>
-    <mergeCell ref="X50:AQ50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="S51:W51"/>
-    <mergeCell ref="X51:AQ51"/>
-    <mergeCell ref="S15:X18"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="X52:AQ52"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="X48:AQ48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="X49:AQ49"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="Z48:AQ48"/>
+    <mergeCell ref="Z49:AQ49"/>
+    <mergeCell ref="Z50:AQ50"/>
+    <mergeCell ref="Z51:AQ51"/>
+    <mergeCell ref="Z52:AQ52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8068,9 +11132,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66F8AA2C-FC14-46C1-B384-36EF1F8B2561}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$11</xm:f>
+            <xm:f>Sheet2!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K48:R52</xm:sqref>
+          <xm:sqref>M48:T52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8078,12 +11142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7F9B4-2B98-4077-87DB-91B04FC43D58}">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8133,13 +11197,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>